--- a/config.xlsx
+++ b/config.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0319F12C-0CA6-48BA-B303-E6037CC1F886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAEE7EC-9D9E-4101-800F-717A13CFE11B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="page1" sheetId="1" r:id="rId1"/>
+    <sheet name="page2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -357,7 +358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -390,4 +391,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A520EDE-84EB-4D1C-B1A9-FB0D29B3A370}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAEE7EC-9D9E-4101-800F-717A13CFE11B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20F1E7A-E7F1-4D68-8122-B10DA6B14CB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="page1" sheetId="1" r:id="rId1"/>
     <sheet name="page2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,31 +21,806 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Header1</t>
-  </si>
-  <si>
-    <t>Header2</t>
-  </si>
-  <si>
-    <t>h1r1</t>
-  </si>
-  <si>
-    <t>h2r1</t>
-  </si>
-  <si>
-    <t>h2r2</t>
-  </si>
-  <si>
-    <t>h1r2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="249">
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>APIC Hostname</t>
+  </si>
+  <si>
+    <t>OOB IP Address/Subnet</t>
+  </si>
+  <si>
+    <t>Gateway Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIMC IP </t>
+  </si>
+  <si>
+    <t>CIMC Gateway Address</t>
+  </si>
+  <si>
+    <t>Admin Password</t>
+  </si>
+  <si>
+    <t>Prod</t>
+  </si>
+  <si>
+    <t>TKO</t>
+  </si>
+  <si>
+    <t>PTNAC01</t>
+  </si>
+  <si>
+    <t>10.8.171.1/24</t>
+  </si>
+  <si>
+    <t>10.8.171.254</t>
+  </si>
+  <si>
+    <t>10.8.171.4/24</t>
+  </si>
+  <si>
+    <t>Col1@3col1@3Col</t>
+  </si>
+  <si>
+    <t>PTNAC02</t>
+  </si>
+  <si>
+    <t>10.8.171.2/24</t>
+  </si>
+  <si>
+    <t>10.8.171.5/24</t>
+  </si>
+  <si>
+    <t>PTNAC03</t>
+  </si>
+  <si>
+    <t>10.8.171.3/24</t>
+  </si>
+  <si>
+    <t>10.8.171.6/24</t>
+  </si>
+  <si>
+    <t>EQX</t>
+  </si>
+  <si>
+    <t>PENAC01</t>
+  </si>
+  <si>
+    <t>10.8.172.1/24</t>
+  </si>
+  <si>
+    <t>10.8.172.254</t>
+  </si>
+  <si>
+    <t>10.8.172.4/24</t>
+  </si>
+  <si>
+    <t>PENAC02</t>
+  </si>
+  <si>
+    <t>10.8.172.2/24</t>
+  </si>
+  <si>
+    <t>10.8.172.5/24</t>
+  </si>
+  <si>
+    <t>PENAC03</t>
+  </si>
+  <si>
+    <t>10.8.172.3/24</t>
+  </si>
+  <si>
+    <t>10.8.172.6/24</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>DTNAC01</t>
+  </si>
+  <si>
+    <t>10.8.161.1/24</t>
+  </si>
+  <si>
+    <t>10.8.161.254</t>
+  </si>
+  <si>
+    <t>10.8.161.4/24</t>
+  </si>
+  <si>
+    <t>DTNAC02</t>
+  </si>
+  <si>
+    <t>10.8.161.2/24</t>
+  </si>
+  <si>
+    <t>10.8.161.5/24</t>
+  </si>
+  <si>
+    <t>DTNAC03</t>
+  </si>
+  <si>
+    <t>10.8.161.3/24</t>
+  </si>
+  <si>
+    <t>10.8.161.6/24</t>
+  </si>
+  <si>
+    <t>DENAC01</t>
+  </si>
+  <si>
+    <t>10.8.162.1/24</t>
+  </si>
+  <si>
+    <t>10.8.162.254</t>
+  </si>
+  <si>
+    <t>10.8.162.4/24</t>
+  </si>
+  <si>
+    <t>DENAC02</t>
+  </si>
+  <si>
+    <t>10.8.162.2/24</t>
+  </si>
+  <si>
+    <t>10.8.162.5/24</t>
+  </si>
+  <si>
+    <t>DENAC03</t>
+  </si>
+  <si>
+    <t>10.8.162.3/24</t>
+  </si>
+  <si>
+    <t>10.8.162.6/24</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Node Name</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Node ID</t>
+  </si>
+  <si>
+    <t>Pod ID</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>DTNSP1101</t>
+  </si>
+  <si>
+    <t>FDO240404QY</t>
+  </si>
+  <si>
+    <t>N9K-C9364C</t>
+  </si>
+  <si>
+    <t>Spine</t>
+  </si>
+  <si>
+    <t>DTNSP1102</t>
+  </si>
+  <si>
+    <t>FDO240404V7</t>
+  </si>
+  <si>
+    <t>DTHLF1201</t>
+  </si>
+  <si>
+    <t>FDO24031638B</t>
+  </si>
+  <si>
+    <t>N9K-C93180YC-FX</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>DTHLF1202</t>
+  </si>
+  <si>
+    <t>FDO240203KY</t>
+  </si>
+  <si>
+    <t>DTOLF1301</t>
+  </si>
+  <si>
+    <t>FDO24031642</t>
+  </si>
+  <si>
+    <t>DTOLF1302</t>
+  </si>
+  <si>
+    <t>FDO2403168L</t>
+  </si>
+  <si>
+    <t>DTCLF1401</t>
+  </si>
+  <si>
+    <t>DTCLF1402</t>
+  </si>
+  <si>
+    <t>DTCLF1403</t>
+  </si>
+  <si>
+    <t>DTCLF1404</t>
+  </si>
+  <si>
+    <t>DTHLC1221</t>
+  </si>
+  <si>
+    <t>FDO240307DG</t>
+  </si>
+  <si>
+    <t>N9K-C93108TC-FX</t>
+  </si>
+  <si>
+    <t>DTHLC1222</t>
+  </si>
+  <si>
+    <t>FDO240306UJ</t>
+  </si>
+  <si>
+    <t>DTHLC1223</t>
+  </si>
+  <si>
+    <t>FDO240306V0</t>
+  </si>
+  <si>
+    <t>DTHLC1224</t>
+  </si>
+  <si>
+    <t>FDO240306YH</t>
+  </si>
+  <si>
+    <t>DTOLC1321</t>
+  </si>
+  <si>
+    <t>FDO240307E4</t>
+  </si>
+  <si>
+    <t>DTOLC1322</t>
+  </si>
+  <si>
+    <t>FDO2403075J</t>
+  </si>
+  <si>
+    <t>DTOLC1323</t>
+  </si>
+  <si>
+    <t>FDO240307EU</t>
+  </si>
+  <si>
+    <t>DTOLC1324</t>
+  </si>
+  <si>
+    <t>FDO2403078M</t>
+  </si>
+  <si>
+    <t>DTCLC1421</t>
+  </si>
+  <si>
+    <t>DTCLC1422</t>
+  </si>
+  <si>
+    <t>DTCLC1423</t>
+  </si>
+  <si>
+    <t>DTCLC1424</t>
+  </si>
+  <si>
+    <t>DTCLC1425</t>
+  </si>
+  <si>
+    <t>DTCLC1426</t>
+  </si>
+  <si>
+    <t>DTCLC1427</t>
+  </si>
+  <si>
+    <t>DTCLC1428</t>
+  </si>
+  <si>
+    <t>DTHBL1241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO24030X1W</t>
+  </si>
+  <si>
+    <t>DTHBL1242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240408J1</t>
+  </si>
+  <si>
+    <t>DTOBL1341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO2403163Z</t>
+  </si>
+  <si>
+    <t>DTOBL1342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO2403168Q</t>
+  </si>
+  <si>
+    <t>DTCBL1441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTCBL1442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTCBL1443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DENSP2101</t>
+  </si>
+  <si>
+    <t>FDO240403P4</t>
+  </si>
+  <si>
+    <t>DENSP2102</t>
+  </si>
+  <si>
+    <t>FDO240404Y9</t>
+  </si>
+  <si>
+    <t>DEHLF2201</t>
+  </si>
+  <si>
+    <t>FDO24030X1M</t>
+  </si>
+  <si>
+    <t>DEHLF2202</t>
+  </si>
+  <si>
+    <t>FDO24030C12</t>
+  </si>
+  <si>
+    <t>DEOLF2301</t>
+  </si>
+  <si>
+    <t>FDO2407059C</t>
+  </si>
+  <si>
+    <t>DEOLF2302</t>
+  </si>
+  <si>
+    <t>FDO2407054E</t>
+  </si>
+  <si>
+    <t>DEHLC2221</t>
+  </si>
+  <si>
+    <t>FDO2403079B</t>
+  </si>
+  <si>
+    <t>DEHLC2222</t>
+  </si>
+  <si>
+    <t>FDO2403079F</t>
+  </si>
+  <si>
+    <t>DEHLC2223</t>
+  </si>
+  <si>
+    <t>FDO2403079T</t>
+  </si>
+  <si>
+    <t>DEHLC2224</t>
+  </si>
+  <si>
+    <t>FDO2403079E</t>
+  </si>
+  <si>
+    <t>DEOLC2321</t>
+  </si>
+  <si>
+    <t>FDO240306YF</t>
+  </si>
+  <si>
+    <t>DEOLC2322</t>
+  </si>
+  <si>
+    <t>FDO2403078X</t>
+  </si>
+  <si>
+    <t>DEHBL2241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO24030X1L</t>
+  </si>
+  <si>
+    <t>DEOBL2341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO2403163Y</t>
+  </si>
+  <si>
+    <t>PTNSP1151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240404W7</t>
+  </si>
+  <si>
+    <t>PTNSP1152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240403XN</t>
+  </si>
+  <si>
+    <t>PTNSP1153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240404QX</t>
+  </si>
+  <si>
+    <t>PTNSP1154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240404V8</t>
+  </si>
+  <si>
+    <t>PTHLF1251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240704NW</t>
+  </si>
+  <si>
+    <t>PTHLF1252</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO2407058G</t>
+  </si>
+  <si>
+    <t>PTHLF1253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240408NX</t>
+  </si>
+  <si>
+    <t>PTHLF1254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240408NZ</t>
+  </si>
+  <si>
+    <t>PTOLF1351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240408P8</t>
+  </si>
+  <si>
+    <t>PTOLF1352</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO24031640</t>
+  </si>
+  <si>
+    <t>PTCLF1451</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTCLF1452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTHLC1271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO04030790</t>
+  </si>
+  <si>
+    <t>PTHLC1272</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240306TL</t>
+  </si>
+  <si>
+    <t>PTHLC1273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240307ED</t>
+  </si>
+  <si>
+    <t>PTHLC1274</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO2403078U</t>
+  </si>
+  <si>
+    <t>PTOLC1371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240307D8</t>
+  </si>
+  <si>
+    <t>PTOLC1372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240307A9</t>
+  </si>
+  <si>
+    <t>PTOLC1373</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO2403079A</t>
+  </si>
+  <si>
+    <t>PTOLC1374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240306XD</t>
+  </si>
+  <si>
+    <t>PTCLC1471</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTCLC1472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTCLC1473</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTCLC1474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTHBL1291</t>
+  </si>
+  <si>
+    <t>FDO24030X1C</t>
+  </si>
+  <si>
+    <t>PTHBL1292</t>
+  </si>
+  <si>
+    <t>FDO240408NU</t>
+  </si>
+  <si>
+    <t>PTOBL1391</t>
+  </si>
+  <si>
+    <t>FDO24021QS9</t>
+  </si>
+  <si>
+    <t>PTOBL1392</t>
+  </si>
+  <si>
+    <t>FDO2403169K</t>
+  </si>
+  <si>
+    <t>PTCBL1491</t>
+  </si>
+  <si>
+    <t>PTCBL1492</t>
+  </si>
+  <si>
+    <t>PECLF2451</t>
+  </si>
+  <si>
+    <t>PECLF2452</t>
+  </si>
+  <si>
+    <t>PECLC2471</t>
+  </si>
+  <si>
+    <t>PECLC2472</t>
+  </si>
+  <si>
+    <t>PECLC2473</t>
+  </si>
+  <si>
+    <t>PECLC2474</t>
+  </si>
+  <si>
+    <t>PECBL2491</t>
+  </si>
+  <si>
+    <t>PECBL2492</t>
+  </si>
+  <si>
+    <t>PENSP2151</t>
+  </si>
+  <si>
+    <t>FDO240404W6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PENSP2152</t>
+  </si>
+  <si>
+    <t>FDO24040469</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PENSP2153</t>
+  </si>
+  <si>
+    <t>FDO240403NZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PENSP2154</t>
+  </si>
+  <si>
+    <t>FDO240404DW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHLC2271</t>
+  </si>
+  <si>
+    <t>FDO240307A0</t>
+  </si>
+  <si>
+    <t>PEHLC2272</t>
+  </si>
+  <si>
+    <t>FDO2403076Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHLC2273</t>
+  </si>
+  <si>
+    <t>FDO240307AQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHLC2274</t>
+  </si>
+  <si>
+    <t>FDO240306VP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHLF2251</t>
+  </si>
+  <si>
+    <t>FDO24070588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHLF2252</t>
+  </si>
+  <si>
+    <t>FDO24070581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHLF2253</t>
+  </si>
+  <si>
+    <t>FDO240408K5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHLF2254</t>
+  </si>
+  <si>
+    <t>FDO24030X2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHBL2291</t>
+  </si>
+  <si>
+    <t>FDO240408FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHBL2292</t>
+  </si>
+  <si>
+    <t>FDO2403160X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEOLC2371</t>
+  </si>
+  <si>
+    <t>FDO240306UL</t>
+  </si>
+  <si>
+    <t>PEOLC2372</t>
+  </si>
+  <si>
+    <t>FDO240307EM</t>
+  </si>
+  <si>
+    <t>PEOLC2373</t>
+  </si>
+  <si>
+    <t>FDO240307DM</t>
+  </si>
+  <si>
+    <t>PEOLC2374</t>
+  </si>
+  <si>
+    <t>FDO240306V2</t>
+  </si>
+  <si>
+    <t>PEOLF2351</t>
+  </si>
+  <si>
+    <t>FDO240408HJ</t>
+  </si>
+  <si>
+    <t>PEOLF2352</t>
+  </si>
+  <si>
+    <t>FDO240408F4</t>
+  </si>
+  <si>
+    <t>PEOBL2391</t>
+  </si>
+  <si>
+    <t>FDO240704VG</t>
+  </si>
+  <si>
+    <t>PEOBL2392</t>
+  </si>
+  <si>
+    <t>FDO2407059H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,16 +828,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF365F91"/>
+        <bgColor rgb="FF365F91"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,12 +876,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,36 +1195,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -395,12 +1558,3162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A520EDE-84EB-4D1C-B1A9-FB0D29B3A370}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f t="shared" ref="F2:F65" si="0">RIGHT(C2,4)</f>
+        <v>1101</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1102</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1201</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1202</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1301</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1302</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1401</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1402</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1403</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1404</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1221</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1222</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1223</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1224</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1321</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1322</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1323</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1324</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1421</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1422</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1423</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1424</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1425</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1426</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1427</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1428</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1241</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1242</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1341</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1342</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1441</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1442</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1443</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2101</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2102</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2201</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2202</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2301</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2302</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2221</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2222</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2223</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2224</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2321</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2322</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2241</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2341</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1151</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1152</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1153</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1154</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1251</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1252</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1253</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1254</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1351</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1352</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1451</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1452</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1271</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1272</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1273</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1274</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1371</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="6" t="str">
+        <f t="shared" ref="F66:F91" si="1">RIGHT(C66,4)</f>
+        <v>1372</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I66" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1373</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1374</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1471</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I69" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1472</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1473</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I71" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1474</v>
+      </c>
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1291</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1292</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1391</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1392</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1491</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1492</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" s="6">
+        <v>2451</v>
+      </c>
+      <c r="G79" s="6">
+        <v>1</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I79" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F80" s="6">
+        <v>2452</v>
+      </c>
+      <c r="G80" s="6">
+        <v>1</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I80" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F81" s="8">
+        <v>2471</v>
+      </c>
+      <c r="G81" s="6">
+        <v>1</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I81" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F82" s="8">
+        <v>2472</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I82" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" s="8">
+        <v>2473</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I83" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84" s="8">
+        <v>2474</v>
+      </c>
+      <c r="G84" s="6">
+        <v>1</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I84" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="8">
+        <v>2491</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I85" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F86" s="8">
+        <v>2492</v>
+      </c>
+      <c r="G86" s="6">
+        <v>1</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I86" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F87" s="8">
+        <v>2151</v>
+      </c>
+      <c r="G87" s="6">
+        <v>1</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" s="8">
+        <v>2152</v>
+      </c>
+      <c r="G88" s="6">
+        <v>1</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F89" s="8">
+        <v>2153</v>
+      </c>
+      <c r="G89" s="6">
+        <v>1</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" s="8">
+        <v>2154</v>
+      </c>
+      <c r="G90" s="6">
+        <v>1</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I90" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F91" s="8">
+        <v>2271</v>
+      </c>
+      <c r="G91" s="6">
+        <v>1</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F92" s="8">
+        <v>2272</v>
+      </c>
+      <c r="G92" s="6">
+        <v>1</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I92" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F93" s="8">
+        <v>2273</v>
+      </c>
+      <c r="G93" s="6">
+        <v>1</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F94" s="8">
+        <v>2274</v>
+      </c>
+      <c r="G94" s="6">
+        <v>1</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I94" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F95" s="8">
+        <v>2251</v>
+      </c>
+      <c r="G95" s="6">
+        <v>1</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F96" s="8">
+        <v>2252</v>
+      </c>
+      <c r="G96" s="6">
+        <v>1</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" s="8">
+        <v>2253</v>
+      </c>
+      <c r="G97" s="6">
+        <v>1</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I97" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F98" s="8">
+        <v>2254</v>
+      </c>
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I98" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F99" s="8">
+        <v>2291</v>
+      </c>
+      <c r="G99" s="6">
+        <v>1</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I99" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F100" s="8">
+        <v>2292</v>
+      </c>
+      <c r="G100" s="6">
+        <v>1</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F101" s="8">
+        <v>2371</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F102" s="8">
+        <v>2372</v>
+      </c>
+      <c r="G102" s="6">
+        <v>1</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F103" s="8">
+        <v>2373</v>
+      </c>
+      <c r="G103" s="6">
+        <v>1</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F104" s="8">
+        <v>2374</v>
+      </c>
+      <c r="G104" s="6">
+        <v>1</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F105" s="8">
+        <v>2351</v>
+      </c>
+      <c r="G105" s="6">
+        <v>1</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F106" s="8">
+        <v>2352</v>
+      </c>
+      <c r="G106" s="6">
+        <v>1</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I106" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F107" s="8">
+        <v>2391</v>
+      </c>
+      <c r="G107" s="6">
+        <v>1</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F108" s="8">
+        <v>2392</v>
+      </c>
+      <c r="G108" s="6">
+        <v>1</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I108" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0319F12C-0CA6-48BA-B303-E6037CC1F886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C322E90-C178-4D5C-899F-9440FEF91511}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="page1" sheetId="1" r:id="rId1"/>
+    <sheet name="page2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,31 +21,806 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Header1</t>
-  </si>
-  <si>
-    <t>Header2</t>
-  </si>
-  <si>
-    <t>h1r1</t>
-  </si>
-  <si>
-    <t>h2r1</t>
-  </si>
-  <si>
-    <t>h2r2</t>
-  </si>
-  <si>
-    <t>h1r2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="249">
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>APIC Hostname</t>
+  </si>
+  <si>
+    <t>OOB IP Address/Subnet</t>
+  </si>
+  <si>
+    <t>Gateway Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIMC IP </t>
+  </si>
+  <si>
+    <t>CIMC Gateway Address</t>
+  </si>
+  <si>
+    <t>Admin Password</t>
+  </si>
+  <si>
+    <t>Prod</t>
+  </si>
+  <si>
+    <t>TKO</t>
+  </si>
+  <si>
+    <t>PTNAC01</t>
+  </si>
+  <si>
+    <t>10.8.171.1/24</t>
+  </si>
+  <si>
+    <t>10.8.171.254</t>
+  </si>
+  <si>
+    <t>10.8.171.4/24</t>
+  </si>
+  <si>
+    <t>Col1@3col1@3Col</t>
+  </si>
+  <si>
+    <t>PTNAC02</t>
+  </si>
+  <si>
+    <t>10.8.171.2/24</t>
+  </si>
+  <si>
+    <t>10.8.171.5/24</t>
+  </si>
+  <si>
+    <t>PTNAC03</t>
+  </si>
+  <si>
+    <t>10.8.171.3/24</t>
+  </si>
+  <si>
+    <t>10.8.171.6/24</t>
+  </si>
+  <si>
+    <t>EQX</t>
+  </si>
+  <si>
+    <t>PENAC01</t>
+  </si>
+  <si>
+    <t>10.8.172.1/24</t>
+  </si>
+  <si>
+    <t>10.8.172.254</t>
+  </si>
+  <si>
+    <t>10.8.172.4/24</t>
+  </si>
+  <si>
+    <t>PENAC02</t>
+  </si>
+  <si>
+    <t>10.8.172.2/24</t>
+  </si>
+  <si>
+    <t>10.8.172.5/24</t>
+  </si>
+  <si>
+    <t>PENAC03</t>
+  </si>
+  <si>
+    <t>10.8.172.3/24</t>
+  </si>
+  <si>
+    <t>10.8.172.6/24</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>DTNAC01</t>
+  </si>
+  <si>
+    <t>10.8.161.1/24</t>
+  </si>
+  <si>
+    <t>10.8.161.254</t>
+  </si>
+  <si>
+    <t>10.8.161.4/24</t>
+  </si>
+  <si>
+    <t>DTNAC02</t>
+  </si>
+  <si>
+    <t>10.8.161.2/24</t>
+  </si>
+  <si>
+    <t>10.8.161.5/24</t>
+  </si>
+  <si>
+    <t>DTNAC03</t>
+  </si>
+  <si>
+    <t>10.8.161.3/24</t>
+  </si>
+  <si>
+    <t>10.8.161.6/24</t>
+  </si>
+  <si>
+    <t>DENAC01</t>
+  </si>
+  <si>
+    <t>10.8.162.1/24</t>
+  </si>
+  <si>
+    <t>10.8.162.254</t>
+  </si>
+  <si>
+    <t>10.8.162.4/24</t>
+  </si>
+  <si>
+    <t>DENAC02</t>
+  </si>
+  <si>
+    <t>10.8.162.2/24</t>
+  </si>
+  <si>
+    <t>10.8.162.5/24</t>
+  </si>
+  <si>
+    <t>DENAC03</t>
+  </si>
+  <si>
+    <t>10.8.162.3/24</t>
+  </si>
+  <si>
+    <t>10.8.162.6/24</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Node Name</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Node ID</t>
+  </si>
+  <si>
+    <t>Pod ID</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>DTNSP1101</t>
+  </si>
+  <si>
+    <t>FDO240404QY</t>
+  </si>
+  <si>
+    <t>N9K-C9364C</t>
+  </si>
+  <si>
+    <t>Spine</t>
+  </si>
+  <si>
+    <t>DTNSP1102</t>
+  </si>
+  <si>
+    <t>FDO240404V7</t>
+  </si>
+  <si>
+    <t>DTHLF1201</t>
+  </si>
+  <si>
+    <t>FDO24031638B</t>
+  </si>
+  <si>
+    <t>N9K-C93180YC-FX</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>DTHLF1202</t>
+  </si>
+  <si>
+    <t>FDO240203KY</t>
+  </si>
+  <si>
+    <t>DTOLF1301</t>
+  </si>
+  <si>
+    <t>FDO24031642</t>
+  </si>
+  <si>
+    <t>DTOLF1302</t>
+  </si>
+  <si>
+    <t>FDO2403168L</t>
+  </si>
+  <si>
+    <t>DTCLF1401</t>
+  </si>
+  <si>
+    <t>DTCLF1402</t>
+  </si>
+  <si>
+    <t>DTCLF1403</t>
+  </si>
+  <si>
+    <t>DTCLF1404</t>
+  </si>
+  <si>
+    <t>DTHLC1221</t>
+  </si>
+  <si>
+    <t>FDO240307DG</t>
+  </si>
+  <si>
+    <t>N9K-C93108TC-FX</t>
+  </si>
+  <si>
+    <t>DTHLC1222</t>
+  </si>
+  <si>
+    <t>FDO240306UJ</t>
+  </si>
+  <si>
+    <t>DTHLC1223</t>
+  </si>
+  <si>
+    <t>FDO240306V0</t>
+  </si>
+  <si>
+    <t>DTHLC1224</t>
+  </si>
+  <si>
+    <t>FDO240306YH</t>
+  </si>
+  <si>
+    <t>DTOLC1321</t>
+  </si>
+  <si>
+    <t>FDO240307E4</t>
+  </si>
+  <si>
+    <t>DTOLC1322</t>
+  </si>
+  <si>
+    <t>FDO2403075J</t>
+  </si>
+  <si>
+    <t>DTOLC1323</t>
+  </si>
+  <si>
+    <t>FDO240307EU</t>
+  </si>
+  <si>
+    <t>DTOLC1324</t>
+  </si>
+  <si>
+    <t>FDO2403078M</t>
+  </si>
+  <si>
+    <t>DTCLC1421</t>
+  </si>
+  <si>
+    <t>DTCLC1422</t>
+  </si>
+  <si>
+    <t>DTCLC1423</t>
+  </si>
+  <si>
+    <t>DTCLC1424</t>
+  </si>
+  <si>
+    <t>DTCLC1425</t>
+  </si>
+  <si>
+    <t>DTCLC1426</t>
+  </si>
+  <si>
+    <t>DTCLC1427</t>
+  </si>
+  <si>
+    <t>DTCLC1428</t>
+  </si>
+  <si>
+    <t>DTHBL1241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO24030X1W</t>
+  </si>
+  <si>
+    <t>DTHBL1242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240408J1</t>
+  </si>
+  <si>
+    <t>DTOBL1341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO2403163Z</t>
+  </si>
+  <si>
+    <t>DTOBL1342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO2403168Q</t>
+  </si>
+  <si>
+    <t>DTCBL1441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTCBL1442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTCBL1443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DENSP2101</t>
+  </si>
+  <si>
+    <t>FDO240403P4</t>
+  </si>
+  <si>
+    <t>DENSP2102</t>
+  </si>
+  <si>
+    <t>FDO240404Y9</t>
+  </si>
+  <si>
+    <t>DEHLF2201</t>
+  </si>
+  <si>
+    <t>FDO24030X1M</t>
+  </si>
+  <si>
+    <t>DEHLF2202</t>
+  </si>
+  <si>
+    <t>FDO24030C12</t>
+  </si>
+  <si>
+    <t>DEOLF2301</t>
+  </si>
+  <si>
+    <t>FDO2407059C</t>
+  </si>
+  <si>
+    <t>DEOLF2302</t>
+  </si>
+  <si>
+    <t>FDO2407054E</t>
+  </si>
+  <si>
+    <t>DEHLC2221</t>
+  </si>
+  <si>
+    <t>FDO2403079B</t>
+  </si>
+  <si>
+    <t>DEHLC2222</t>
+  </si>
+  <si>
+    <t>FDO2403079F</t>
+  </si>
+  <si>
+    <t>DEHLC2223</t>
+  </si>
+  <si>
+    <t>FDO2403079T</t>
+  </si>
+  <si>
+    <t>DEHLC2224</t>
+  </si>
+  <si>
+    <t>FDO2403079E</t>
+  </si>
+  <si>
+    <t>DEOLC2321</t>
+  </si>
+  <si>
+    <t>FDO240306YF</t>
+  </si>
+  <si>
+    <t>DEOLC2322</t>
+  </si>
+  <si>
+    <t>FDO2403078X</t>
+  </si>
+  <si>
+    <t>DEHBL2241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO24030X1L</t>
+  </si>
+  <si>
+    <t>DEOBL2341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO2403163Y</t>
+  </si>
+  <si>
+    <t>PTNSP1151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240404W7</t>
+  </si>
+  <si>
+    <t>PTNSP1152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240403XN</t>
+  </si>
+  <si>
+    <t>PTNSP1153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240404QX</t>
+  </si>
+  <si>
+    <t>PTNSP1154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240404V8</t>
+  </si>
+  <si>
+    <t>PTHLF1251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240704NW</t>
+  </si>
+  <si>
+    <t>PTHLF1252</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO2407058G</t>
+  </si>
+  <si>
+    <t>PTHLF1253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240408NX</t>
+  </si>
+  <si>
+    <t>PTHLF1254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240408NZ</t>
+  </si>
+  <si>
+    <t>PTOLF1351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240408P8</t>
+  </si>
+  <si>
+    <t>PTOLF1352</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO24031640</t>
+  </si>
+  <si>
+    <t>PTCLF1451</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTCLF1452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTHLC1271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO04030790</t>
+  </si>
+  <si>
+    <t>PTHLC1272</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240306TL</t>
+  </si>
+  <si>
+    <t>PTHLC1273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240307ED</t>
+  </si>
+  <si>
+    <t>PTHLC1274</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO2403078U</t>
+  </si>
+  <si>
+    <t>PTOLC1371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240307D8</t>
+  </si>
+  <si>
+    <t>PTOLC1372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240307A9</t>
+  </si>
+  <si>
+    <t>PTOLC1373</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO2403079A</t>
+  </si>
+  <si>
+    <t>PTOLC1374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDO240306XD</t>
+  </si>
+  <si>
+    <t>PTCLC1471</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTCLC1472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTCLC1473</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTCLC1474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTHBL1291</t>
+  </si>
+  <si>
+    <t>FDO24030X1C</t>
+  </si>
+  <si>
+    <t>PTHBL1292</t>
+  </si>
+  <si>
+    <t>FDO240408NU</t>
+  </si>
+  <si>
+    <t>PTOBL1391</t>
+  </si>
+  <si>
+    <t>FDO24021QS9</t>
+  </si>
+  <si>
+    <t>PTOBL1392</t>
+  </si>
+  <si>
+    <t>FDO2403169K</t>
+  </si>
+  <si>
+    <t>PTCBL1491</t>
+  </si>
+  <si>
+    <t>PTCBL1492</t>
+  </si>
+  <si>
+    <t>PECLF2451</t>
+  </si>
+  <si>
+    <t>PECLF2452</t>
+  </si>
+  <si>
+    <t>PECLC2471</t>
+  </si>
+  <si>
+    <t>PECLC2472</t>
+  </si>
+  <si>
+    <t>PECLC2473</t>
+  </si>
+  <si>
+    <t>PECLC2474</t>
+  </si>
+  <si>
+    <t>PECBL2491</t>
+  </si>
+  <si>
+    <t>PECBL2492</t>
+  </si>
+  <si>
+    <t>PENSP2151</t>
+  </si>
+  <si>
+    <t>FDO240404W6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PENSP2152</t>
+  </si>
+  <si>
+    <t>FDO24040469</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PENSP2153</t>
+  </si>
+  <si>
+    <t>FDO240403NZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PENSP2154</t>
+  </si>
+  <si>
+    <t>FDO240404DW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHLC2271</t>
+  </si>
+  <si>
+    <t>FDO240307A0</t>
+  </si>
+  <si>
+    <t>PEHLC2272</t>
+  </si>
+  <si>
+    <t>FDO2403076Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHLC2273</t>
+  </si>
+  <si>
+    <t>FDO240307AQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHLC2274</t>
+  </si>
+  <si>
+    <t>FDO240306VP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHLF2251</t>
+  </si>
+  <si>
+    <t>FDO24070588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHLF2252</t>
+  </si>
+  <si>
+    <t>FDO24070581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHLF2253</t>
+  </si>
+  <si>
+    <t>FDO240408K5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHLF2254</t>
+  </si>
+  <si>
+    <t>FDO24030X2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHBL2291</t>
+  </si>
+  <si>
+    <t>FDO240408FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEHBL2292</t>
+  </si>
+  <si>
+    <t>FDO2403160X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEOLC2371</t>
+  </si>
+  <si>
+    <t>FDO240306UL</t>
+  </si>
+  <si>
+    <t>PEOLC2372</t>
+  </si>
+  <si>
+    <t>FDO240307EM</t>
+  </si>
+  <si>
+    <t>PEOLC2373</t>
+  </si>
+  <si>
+    <t>FDO240307DM</t>
+  </si>
+  <si>
+    <t>PEOLC2374</t>
+  </si>
+  <si>
+    <t>FDO240306V2</t>
+  </si>
+  <si>
+    <t>PEOLF2351</t>
+  </si>
+  <si>
+    <t>FDO240408HJ</t>
+  </si>
+  <si>
+    <t>PEOLF2352</t>
+  </si>
+  <si>
+    <t>FDO240408F4</t>
+  </si>
+  <si>
+    <t>PEOBL2391</t>
+  </si>
+  <si>
+    <t>FDO240704VG</t>
+  </si>
+  <si>
+    <t>PEOBL2392</t>
+  </si>
+  <si>
+    <t>FDO2407059H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,16 +828,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF365F91"/>
+        <bgColor rgb="FF365F91"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -69,12 +876,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,36 +1195,3522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A520EDE-84EB-4D1C-B1A9-FB0D29B3A370}">
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f t="shared" ref="F2:F65" si="0">RIGHT(C2,4)</f>
+        <v>1101</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1102</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1201</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1202</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1301</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1302</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1401</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="6">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1402</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1403</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1404</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1221</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1222</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1223</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1224</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1321</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1322</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1323</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1324</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1421</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1422</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1423</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1424</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1425</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1426</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1427</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1428</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1241</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1242</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1341</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1342</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1441</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1442</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1443</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2101</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2102</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2201</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2202</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2301</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2302</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2221</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2222</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2223</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2224</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2321</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2322</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2241</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2341</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1151</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1152</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1153</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1154</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1251</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1252</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1253</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1254</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1351</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1352</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1451</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1452</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1271</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1272</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1273</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1274</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1371</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="6" t="str">
+        <f t="shared" ref="F66:F91" si="1">RIGHT(C66,4)</f>
+        <v>1372</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I66" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1373</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1374</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1471</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I69" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1472</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1473</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I71" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1474</v>
+      </c>
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1291</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1292</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1391</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1392</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1491</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1492</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" s="6">
+        <v>2451</v>
+      </c>
+      <c r="G79" s="6">
+        <v>1</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I79" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F80" s="6">
+        <v>2452</v>
+      </c>
+      <c r="G80" s="6">
+        <v>1</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I80" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F81" s="8">
+        <v>2471</v>
+      </c>
+      <c r="G81" s="6">
+        <v>1</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I81" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F82" s="8">
+        <v>2472</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I82" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" s="8">
+        <v>2473</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I83" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84" s="8">
+        <v>2474</v>
+      </c>
+      <c r="G84" s="6">
+        <v>1</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I84" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="8">
+        <v>2491</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I85" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F86" s="8">
+        <v>2492</v>
+      </c>
+      <c r="G86" s="6">
+        <v>1</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I86" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F87" s="8">
+        <v>2151</v>
+      </c>
+      <c r="G87" s="6">
+        <v>1</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" s="8">
+        <v>2152</v>
+      </c>
+      <c r="G88" s="6">
+        <v>1</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F89" s="8">
+        <v>2153</v>
+      </c>
+      <c r="G89" s="6">
+        <v>1</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" s="8">
+        <v>2154</v>
+      </c>
+      <c r="G90" s="6">
+        <v>1</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I90" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F91" s="8">
+        <v>2271</v>
+      </c>
+      <c r="G91" s="6">
+        <v>1</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F92" s="8">
+        <v>2272</v>
+      </c>
+      <c r="G92" s="6">
+        <v>1</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I92" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F93" s="8">
+        <v>2273</v>
+      </c>
+      <c r="G93" s="6">
+        <v>1</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F94" s="8">
+        <v>2274</v>
+      </c>
+      <c r="G94" s="6">
+        <v>1</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I94" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F95" s="8">
+        <v>2251</v>
+      </c>
+      <c r="G95" s="6">
+        <v>1</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F96" s="8">
+        <v>2252</v>
+      </c>
+      <c r="G96" s="6">
+        <v>1</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" s="8">
+        <v>2253</v>
+      </c>
+      <c r="G97" s="6">
+        <v>1</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I97" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F98" s="8">
+        <v>2254</v>
+      </c>
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I98" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F99" s="8">
+        <v>2291</v>
+      </c>
+      <c r="G99" s="6">
+        <v>1</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I99" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F100" s="8">
+        <v>2292</v>
+      </c>
+      <c r="G100" s="6">
+        <v>1</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F101" s="8">
+        <v>2371</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F102" s="8">
+        <v>2372</v>
+      </c>
+      <c r="G102" s="6">
+        <v>1</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F103" s="8">
+        <v>2373</v>
+      </c>
+      <c r="G103" s="6">
+        <v>1</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F104" s="8">
+        <v>2374</v>
+      </c>
+      <c r="G104" s="6">
+        <v>1</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F105" s="8">
+        <v>2351</v>
+      </c>
+      <c r="G105" s="6">
+        <v>1</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F106" s="8">
+        <v>2352</v>
+      </c>
+      <c r="G106" s="6">
+        <v>1</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I106" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F107" s="8">
+        <v>2391</v>
+      </c>
+      <c r="G107" s="6">
+        <v>1</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F108" s="8">
+        <v>2392</v>
+      </c>
+      <c r="G108" s="6">
+        <v>1</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I108" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
